--- a/sample.xlsx
+++ b/sample.xlsx
@@ -75,7 +75,7 @@
 </styleSheet>
 </file>
 
-<file path=xl\theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
@@ -358,7 +358,7 @@
 </a:theme>
 </file>
 
-<file path=xl\worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
